--- a/instance/zyjk/CDRD/web/testcase.xlsx
+++ b/instance/zyjk/CDRD/web/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24240" windowHeight="16760" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27660" windowHeight="13160" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="35">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -28,7 +28,17 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <sz val="11"/>
     </font>
     <font>
@@ -39,17 +49,45 @@
       <u val="single"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF080808"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="等线"/>
@@ -59,16 +97,16 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -429,12 +467,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,247 +654,344 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,318 +1443,318 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="inlineStr">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>测试报告邮件链接：</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="B1" s="51" t="n"/>
+      <c r="C1" s="52" t="inlineStr">
         <is>
           <t>https://exmail.qq.com/cgi-bin/frame_html?t=newwin_frame&amp;sid=juRbMcy1XByGVH8W,7&amp;url=%2Fcgi-bin%2Freadmail%3Ffolderid%3D1%26t%3Dreadmail%26mailid%3DZL0022-F32sxDnTCko7XHceg87_f0d%26mode%3Dpre%26maxage%3D3600%26base%3D10.5710%26ver%3D13360%26show_ww_icon%3Dfalse</t>
         </is>
       </c>
-      <c r="D1" s="19" t="n"/>
-      <c r="E1" s="19" t="n"/>
-      <c r="F1" s="19" t="n"/>
-      <c r="G1" s="19" t="n"/>
-      <c r="H1" s="19" t="n"/>
-      <c r="I1" s="19" t="n"/>
-      <c r="J1" s="19" t="n"/>
-      <c r="K1" s="19" t="n"/>
-      <c r="L1" s="19" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
+      <c r="D1" s="53" t="n"/>
+      <c r="E1" s="53" t="n"/>
+      <c r="F1" s="53" t="n"/>
+      <c r="G1" s="53" t="n"/>
+      <c r="H1" s="53" t="n"/>
+      <c r="I1" s="53" t="n"/>
+      <c r="J1" s="53" t="n"/>
+      <c r="K1" s="53" t="n"/>
+      <c r="L1" s="53" t="n"/>
+      <c r="M1" s="16" t="n"/>
+      <c r="N1" s="16" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="inlineStr">
+      <c r="A2" s="50" t="inlineStr">
         <is>
           <t>用例完成时间：2026.1.26</t>
         </is>
       </c>
-      <c r="B2" s="32" t="n"/>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="B2" s="51" t="n"/>
+      <c r="C2" s="50" t="inlineStr">
         <is>
           <t>用例评审时间：2026.2.10</t>
         </is>
       </c>
-      <c r="D2" s="32" t="n"/>
-      <c r="E2" s="17" t="inlineStr">
+      <c r="D2" s="51" t="n"/>
+      <c r="E2" s="50" t="inlineStr">
         <is>
           <t>评审状态：已完成</t>
         </is>
       </c>
-      <c r="F2" s="19" t="n"/>
-      <c r="G2" s="19" t="n"/>
-      <c r="H2" s="19" t="n"/>
-      <c r="I2" s="19" t="n"/>
-      <c r="J2" s="19" t="n"/>
-      <c r="K2" s="19" t="n"/>
-      <c r="L2" s="19" t="n"/>
-      <c r="M2" s="20" t="n"/>
-      <c r="N2" s="20" t="n"/>
+      <c r="F2" s="53" t="n"/>
+      <c r="G2" s="53" t="n"/>
+      <c r="H2" s="53" t="n"/>
+      <c r="I2" s="53" t="n"/>
+      <c r="J2" s="53" t="n"/>
+      <c r="K2" s="53" t="n"/>
+      <c r="L2" s="53" t="n"/>
+      <c r="M2" s="54" t="n"/>
+      <c r="N2" s="54" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="inlineStr">
+      <c r="A3" s="55" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="55" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C3" s="21" t="inlineStr">
+      <c r="C3" s="55" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D3" s="21" t="inlineStr">
+      <c r="D3" s="55" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="E3" s="56" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F3" s="21" t="inlineStr">
+      <c r="F3" s="55" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G3" s="23" t="inlineStr">
+      <c r="G3" s="57" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H3" s="23" t="inlineStr">
+      <c r="H3" s="57" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I3" s="24" t="inlineStr">
+      <c r="I3" s="58" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J3" s="25" t="inlineStr">
+      <c r="J3" s="59" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K3" s="25" t="inlineStr">
+      <c r="K3" s="59" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L3" s="25" t="inlineStr">
+      <c r="L3" s="59" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="26" t="inlineStr">
+      <c r="M3" s="60" t="inlineStr">
         <is>
           <t>工作流</t>
         </is>
       </c>
-      <c r="N3" s="27" t="inlineStr">
+      <c r="N3" s="61" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="33" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="C4" s="33" t="n"/>
+      <c r="D4" s="37" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="62" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="63" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="33" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="n"/>
-      <c r="M4" s="12" t="n"/>
-      <c r="N4" s="12" t="n"/>
+      <c r="K4" s="33" t="n"/>
+      <c r="L4" s="33" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
     </row>
     <row r="5" ht="68" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="33" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="C5" s="33" t="n"/>
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="62" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="63" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="33" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="37" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
+      <c r="J5" s="33" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="8" t="n"/>
-      <c r="M5" s="12" t="n"/>
-      <c r="N5" s="12" t="n"/>
+      <c r="K5" s="33" t="n"/>
+      <c r="L5" s="33" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
     </row>
     <row r="6" ht="236" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="33" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="44" t="inlineStr">
         <is>
           <t>[{"1，用户登录接口": "curl login(‘admin’，’123456‘)"}, {"2，设置机构接口"："curl org（code：'123'，name：‘宝山社区'）"}]</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="62" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="63" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" s="33" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K6" s="14" t="inlineStr">
+      <c r="K6" s="64" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="15" t="inlineStr">
+      <c r="L6" s="34" t="inlineStr">
         <is>
           <t>{"sql":"select * from user where name='张三'"，"validation"：{"name":"张三",'age':'20','sex':"1"}}</t>
         </is>
       </c>
-      <c r="M6" s="16" t="n"/>
-      <c r="N6" s="16" t="n"/>
+      <c r="M6" s="48" t="n"/>
+      <c r="N6" s="48" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="n"/>
-      <c r="B7" s="28" t="n"/>
-      <c r="C7" s="28" t="n"/>
-      <c r="D7" s="28" t="n"/>
-      <c r="E7" s="28" t="n"/>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="28" t="n"/>
-      <c r="H7" s="28" t="n"/>
-      <c r="I7" s="28" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="28" t="n"/>
-      <c r="L7" s="28" t="n"/>
-      <c r="M7" s="28" t="n"/>
-      <c r="N7" s="28" t="n"/>
+      <c r="A7" s="65" t="n"/>
+      <c r="B7" s="65" t="n"/>
+      <c r="C7" s="65" t="n"/>
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="65" t="n"/>
+      <c r="F7" s="65" t="n"/>
+      <c r="G7" s="65" t="n"/>
+      <c r="H7" s="65" t="n"/>
+      <c r="I7" s="65" t="n"/>
+      <c r="J7" s="65" t="n"/>
+      <c r="K7" s="65" t="n"/>
+      <c r="L7" s="65" t="n"/>
+      <c r="M7" s="65" t="n"/>
+      <c r="N7" s="65" t="n"/>
     </row>
     <row r="8" ht="409.5" customHeight="1">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="66" t="inlineStr">
         <is>
           <t>字段说明：
 优先级
@@ -1631,113 +1796,113 @@
 用于airflow工作流调度，暂未空</t>
         </is>
       </c>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="30" t="n"/>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="n"/>
-      <c r="L8" s="30" t="n"/>
-      <c r="M8" s="30" t="n"/>
-      <c r="N8" s="30" t="n"/>
+      <c r="H8" s="43" t="n"/>
+      <c r="I8" s="43" t="n"/>
+      <c r="J8" s="43" t="n"/>
+      <c r="K8" s="43" t="n"/>
+      <c r="L8" s="43" t="n"/>
+      <c r="M8" s="43" t="n"/>
+      <c r="N8" s="43" t="n"/>
     </row>
     <row r="9">
-      <c r="H9" s="30" t="n"/>
-      <c r="I9" s="30" t="n"/>
-      <c r="J9" s="30" t="n"/>
-      <c r="K9" s="30" t="n"/>
-      <c r="L9" s="30" t="n"/>
-      <c r="M9" s="30" t="n"/>
-      <c r="N9" s="30" t="n"/>
+      <c r="H9" s="43" t="n"/>
+      <c r="I9" s="43" t="n"/>
+      <c r="J9" s="43" t="n"/>
+      <c r="K9" s="43" t="n"/>
+      <c r="L9" s="43" t="n"/>
+      <c r="M9" s="43" t="n"/>
+      <c r="N9" s="43" t="n"/>
     </row>
     <row r="10">
-      <c r="H10" s="30" t="n"/>
-      <c r="I10" s="30" t="n"/>
-      <c r="J10" s="30" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="30" t="n"/>
+      <c r="H10" s="43" t="n"/>
+      <c r="I10" s="43" t="n"/>
+      <c r="J10" s="43" t="n"/>
+      <c r="K10" s="43" t="n"/>
+      <c r="L10" s="43" t="n"/>
+      <c r="M10" s="43" t="n"/>
+      <c r="N10" s="43" t="n"/>
     </row>
     <row r="11">
-      <c r="H11" s="30" t="n"/>
-      <c r="I11" s="30" t="n"/>
-      <c r="J11" s="30" t="n"/>
-      <c r="K11" s="30" t="n"/>
-      <c r="L11" s="30" t="n"/>
-      <c r="M11" s="30" t="n"/>
-      <c r="N11" s="30" t="n"/>
+      <c r="H11" s="43" t="n"/>
+      <c r="I11" s="43" t="n"/>
+      <c r="J11" s="43" t="n"/>
+      <c r="K11" s="43" t="n"/>
+      <c r="L11" s="43" t="n"/>
+      <c r="M11" s="43" t="n"/>
+      <c r="N11" s="43" t="n"/>
     </row>
     <row r="12">
-      <c r="H12" s="30" t="n"/>
-      <c r="I12" s="30" t="n"/>
-      <c r="J12" s="30" t="n"/>
-      <c r="K12" s="30" t="n"/>
-      <c r="L12" s="30" t="n"/>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="30" t="n"/>
+      <c r="H12" s="43" t="n"/>
+      <c r="I12" s="43" t="n"/>
+      <c r="J12" s="43" t="n"/>
+      <c r="K12" s="43" t="n"/>
+      <c r="L12" s="43" t="n"/>
+      <c r="M12" s="43" t="n"/>
+      <c r="N12" s="43" t="n"/>
     </row>
     <row r="13">
-      <c r="H13" s="30" t="n"/>
-      <c r="I13" s="30" t="n"/>
-      <c r="J13" s="30" t="n"/>
-      <c r="K13" s="30" t="n"/>
-      <c r="L13" s="30" t="n"/>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="30" t="n"/>
+      <c r="H13" s="43" t="n"/>
+      <c r="I13" s="43" t="n"/>
+      <c r="J13" s="43" t="n"/>
+      <c r="K13" s="43" t="n"/>
+      <c r="L13" s="43" t="n"/>
+      <c r="M13" s="43" t="n"/>
+      <c r="N13" s="43" t="n"/>
     </row>
     <row r="14">
-      <c r="H14" s="30" t="n"/>
-      <c r="I14" s="30" t="n"/>
-      <c r="J14" s="30" t="n"/>
-      <c r="K14" s="30" t="n"/>
-      <c r="L14" s="30" t="n"/>
-      <c r="M14" s="30" t="n"/>
-      <c r="N14" s="30" t="n"/>
+      <c r="H14" s="43" t="n"/>
+      <c r="I14" s="43" t="n"/>
+      <c r="J14" s="43" t="n"/>
+      <c r="K14" s="43" t="n"/>
+      <c r="L14" s="43" t="n"/>
+      <c r="M14" s="43" t="n"/>
+      <c r="N14" s="43" t="n"/>
     </row>
     <row r="15">
-      <c r="H15" s="30" t="n"/>
-      <c r="I15" s="30" t="n"/>
-      <c r="J15" s="30" t="n"/>
-      <c r="K15" s="30" t="n"/>
-      <c r="L15" s="30" t="n"/>
-      <c r="M15" s="30" t="n"/>
-      <c r="N15" s="30" t="n"/>
+      <c r="H15" s="43" t="n"/>
+      <c r="I15" s="43" t="n"/>
+      <c r="J15" s="43" t="n"/>
+      <c r="K15" s="43" t="n"/>
+      <c r="L15" s="43" t="n"/>
+      <c r="M15" s="43" t="n"/>
+      <c r="N15" s="43" t="n"/>
     </row>
     <row r="16">
-      <c r="H16" s="30" t="n"/>
-      <c r="I16" s="30" t="n"/>
-      <c r="J16" s="30" t="n"/>
-      <c r="K16" s="30" t="n"/>
-      <c r="L16" s="30" t="n"/>
-      <c r="M16" s="30" t="n"/>
-      <c r="N16" s="30" t="n"/>
+      <c r="H16" s="43" t="n"/>
+      <c r="I16" s="43" t="n"/>
+      <c r="J16" s="43" t="n"/>
+      <c r="K16" s="43" t="n"/>
+      <c r="L16" s="43" t="n"/>
+      <c r="M16" s="43" t="n"/>
+      <c r="N16" s="43" t="n"/>
     </row>
     <row r="17">
-      <c r="H17" s="30" t="n"/>
-      <c r="I17" s="30" t="n"/>
-      <c r="J17" s="30" t="n"/>
-      <c r="K17" s="30" t="n"/>
-      <c r="L17" s="30" t="n"/>
-      <c r="M17" s="30" t="n"/>
-      <c r="N17" s="30" t="n"/>
+      <c r="H17" s="43" t="n"/>
+      <c r="I17" s="43" t="n"/>
+      <c r="J17" s="43" t="n"/>
+      <c r="K17" s="43" t="n"/>
+      <c r="L17" s="43" t="n"/>
+      <c r="M17" s="43" t="n"/>
+      <c r="N17" s="43" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="n"/>
-      <c r="B18" s="28" t="n"/>
-      <c r="C18" s="28" t="n"/>
-      <c r="D18" s="28" t="n"/>
-      <c r="E18" s="28" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="28" t="n"/>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="28" t="n"/>
-      <c r="L18" s="28" t="n"/>
-      <c r="M18" s="28" t="n"/>
-      <c r="N18" s="28" t="n"/>
+      <c r="A18" s="65" t="n"/>
+      <c r="B18" s="65" t="n"/>
+      <c r="C18" s="65" t="n"/>
+      <c r="D18" s="65" t="n"/>
+      <c r="E18" s="65" t="n"/>
+      <c r="F18" s="65" t="n"/>
+      <c r="G18" s="65" t="n"/>
+      <c r="H18" s="65" t="n"/>
+      <c r="I18" s="65" t="n"/>
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="65" t="n"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
+      <c r="N18" s="65" t="n"/>
     </row>
     <row r="19" ht="64.59999999999999" customHeight="1">
-      <c r="A19" s="29" t="inlineStr">
+      <c r="A19" s="66" t="inlineStr">
         <is>
           <t>自动化执行流程：
 1，判断“是否自动化”，仅对标记为 “是” 的用例执行自动化流程。
@@ -1749,68 +1914,68 @@
 5，根据断言结果，自动更新用例执行状态。</t>
         </is>
       </c>
-      <c r="H19" s="30" t="n"/>
-      <c r="I19" s="30" t="n"/>
-      <c r="J19" s="30" t="n"/>
-      <c r="K19" s="30" t="n"/>
-      <c r="L19" s="30" t="n"/>
-      <c r="M19" s="30" t="n"/>
-      <c r="N19" s="30" t="n"/>
+      <c r="H19" s="43" t="n"/>
+      <c r="I19" s="43" t="n"/>
+      <c r="J19" s="43" t="n"/>
+      <c r="K19" s="43" t="n"/>
+      <c r="L19" s="43" t="n"/>
+      <c r="M19" s="43" t="n"/>
+      <c r="N19" s="43" t="n"/>
     </row>
     <row r="20">
-      <c r="H20" s="30" t="n"/>
-      <c r="I20" s="30" t="n"/>
-      <c r="J20" s="30" t="n"/>
-      <c r="K20" s="30" t="n"/>
-      <c r="L20" s="30" t="n"/>
-      <c r="M20" s="30" t="n"/>
-      <c r="N20" s="30" t="n"/>
+      <c r="H20" s="43" t="n"/>
+      <c r="I20" s="43" t="n"/>
+      <c r="J20" s="43" t="n"/>
+      <c r="K20" s="43" t="n"/>
+      <c r="L20" s="43" t="n"/>
+      <c r="M20" s="43" t="n"/>
+      <c r="N20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="H21" s="30" t="n"/>
-      <c r="I21" s="30" t="n"/>
-      <c r="J21" s="30" t="n"/>
-      <c r="K21" s="30" t="n"/>
-      <c r="L21" s="30" t="n"/>
-      <c r="M21" s="30" t="n"/>
-      <c r="N21" s="30" t="n"/>
+      <c r="H21" s="43" t="n"/>
+      <c r="I21" s="43" t="n"/>
+      <c r="J21" s="43" t="n"/>
+      <c r="K21" s="43" t="n"/>
+      <c r="L21" s="43" t="n"/>
+      <c r="M21" s="43" t="n"/>
+      <c r="N21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="H22" s="30" t="n"/>
-      <c r="I22" s="30" t="n"/>
-      <c r="J22" s="30" t="n"/>
-      <c r="K22" s="30" t="n"/>
-      <c r="L22" s="30" t="n"/>
-      <c r="M22" s="30" t="n"/>
-      <c r="N22" s="30" t="n"/>
+      <c r="H22" s="43" t="n"/>
+      <c r="I22" s="43" t="n"/>
+      <c r="J22" s="43" t="n"/>
+      <c r="K22" s="43" t="n"/>
+      <c r="L22" s="43" t="n"/>
+      <c r="M22" s="43" t="n"/>
+      <c r="N22" s="43" t="n"/>
     </row>
     <row r="23">
-      <c r="H23" s="30" t="n"/>
-      <c r="I23" s="31" t="n"/>
-      <c r="J23" s="31" t="n"/>
-      <c r="K23" s="31" t="n"/>
-      <c r="L23" s="31" t="n"/>
-      <c r="M23" s="31" t="n"/>
-      <c r="N23" s="31" t="n"/>
+      <c r="H23" s="43" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+      <c r="M23" s="67" t="n"/>
+      <c r="N23" s="67" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="28" t="n"/>
-      <c r="B24" s="28" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="28" t="n"/>
-      <c r="E24" s="28" t="n"/>
-      <c r="F24" s="28" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="28" t="n"/>
-      <c r="K24" s="28" t="n"/>
-      <c r="L24" s="28" t="n"/>
-      <c r="M24" s="28" t="n"/>
-      <c r="N24" s="28" t="n"/>
+      <c r="A24" s="65" t="n"/>
+      <c r="B24" s="65" t="n"/>
+      <c r="C24" s="65" t="n"/>
+      <c r="D24" s="65" t="n"/>
+      <c r="E24" s="65" t="n"/>
+      <c r="F24" s="65" t="n"/>
+      <c r="G24" s="65" t="n"/>
+      <c r="H24" s="65" t="n"/>
+      <c r="I24" s="65" t="n"/>
+      <c r="J24" s="65" t="n"/>
+      <c r="K24" s="65" t="n"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
+      <c r="N24" s="65" t="n"/>
     </row>
     <row r="25" ht="409.5" customHeight="1">
-      <c r="A25" s="29" t="inlineStr">
+      <c r="A25" s="66" t="inlineStr">
         <is>
           <t>前置条件与自动化校验使用说明：
 以下以自动化创建用户场景为例，说明前置条件的两种编写方式。
@@ -1853,130 +2018,130 @@
 4，暂不支持多层嵌套与复杂逻辑组合。</t>
         </is>
       </c>
-      <c r="H25" s="30" t="n"/>
-      <c r="I25" s="31" t="n"/>
-      <c r="J25" s="31" t="n"/>
-      <c r="K25" s="31" t="n"/>
-      <c r="L25" s="31" t="n"/>
-      <c r="M25" s="31" t="n"/>
-      <c r="N25" s="31" t="n"/>
+      <c r="H25" s="43" t="n"/>
+      <c r="I25" s="67" t="n"/>
+      <c r="J25" s="67" t="n"/>
+      <c r="K25" s="67" t="n"/>
+      <c r="L25" s="67" t="n"/>
+      <c r="M25" s="67" t="n"/>
+      <c r="N25" s="67" t="n"/>
     </row>
     <row r="26">
-      <c r="H26" s="30" t="n"/>
-      <c r="I26" s="31" t="n"/>
-      <c r="J26" s="31" t="n"/>
-      <c r="K26" s="31" t="n"/>
-      <c r="L26" s="31" t="n"/>
-      <c r="M26" s="31" t="n"/>
-      <c r="N26" s="31" t="n"/>
+      <c r="H26" s="43" t="n"/>
+      <c r="I26" s="67" t="n"/>
+      <c r="J26" s="67" t="n"/>
+      <c r="K26" s="67" t="n"/>
+      <c r="L26" s="67" t="n"/>
+      <c r="M26" s="67" t="n"/>
+      <c r="N26" s="67" t="n"/>
     </row>
     <row r="27">
-      <c r="H27" s="30" t="n"/>
-      <c r="I27" s="31" t="n"/>
-      <c r="J27" s="31" t="n"/>
-      <c r="K27" s="31" t="n"/>
-      <c r="L27" s="31" t="n"/>
-      <c r="M27" s="31" t="n"/>
-      <c r="N27" s="31" t="n"/>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="67" t="n"/>
+      <c r="J27" s="67" t="n"/>
+      <c r="K27" s="67" t="n"/>
+      <c r="L27" s="67" t="n"/>
+      <c r="M27" s="67" t="n"/>
+      <c r="N27" s="67" t="n"/>
     </row>
     <row r="28">
-      <c r="H28" s="30" t="n"/>
-      <c r="I28" s="31" t="n"/>
-      <c r="J28" s="31" t="n"/>
-      <c r="K28" s="31" t="n"/>
-      <c r="L28" s="31" t="n"/>
-      <c r="M28" s="31" t="n"/>
-      <c r="N28" s="31" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="67" t="n"/>
+      <c r="J28" s="67" t="n"/>
+      <c r="K28" s="67" t="n"/>
+      <c r="L28" s="67" t="n"/>
+      <c r="M28" s="67" t="n"/>
+      <c r="N28" s="67" t="n"/>
     </row>
     <row r="29">
-      <c r="H29" s="30" t="n"/>
-      <c r="I29" s="31" t="n"/>
-      <c r="J29" s="31" t="n"/>
-      <c r="K29" s="31" t="n"/>
-      <c r="L29" s="31" t="n"/>
-      <c r="M29" s="31" t="n"/>
-      <c r="N29" s="31" t="n"/>
+      <c r="H29" s="43" t="n"/>
+      <c r="I29" s="67" t="n"/>
+      <c r="J29" s="67" t="n"/>
+      <c r="K29" s="67" t="n"/>
+      <c r="L29" s="67" t="n"/>
+      <c r="M29" s="67" t="n"/>
+      <c r="N29" s="67" t="n"/>
     </row>
     <row r="30">
-      <c r="H30" s="30" t="n"/>
-      <c r="I30" s="31" t="n"/>
-      <c r="J30" s="31" t="n"/>
-      <c r="K30" s="31" t="n"/>
-      <c r="L30" s="31" t="n"/>
-      <c r="M30" s="31" t="n"/>
-      <c r="N30" s="31" t="n"/>
+      <c r="H30" s="43" t="n"/>
+      <c r="I30" s="67" t="n"/>
+      <c r="J30" s="67" t="n"/>
+      <c r="K30" s="67" t="n"/>
+      <c r="L30" s="67" t="n"/>
+      <c r="M30" s="67" t="n"/>
+      <c r="N30" s="67" t="n"/>
     </row>
     <row r="31">
-      <c r="H31" s="30" t="n"/>
-      <c r="I31" s="31" t="n"/>
-      <c r="J31" s="31" t="n"/>
-      <c r="K31" s="31" t="n"/>
-      <c r="L31" s="31" t="n"/>
-      <c r="M31" s="31" t="n"/>
-      <c r="N31" s="31" t="n"/>
+      <c r="H31" s="43" t="n"/>
+      <c r="I31" s="67" t="n"/>
+      <c r="J31" s="67" t="n"/>
+      <c r="K31" s="67" t="n"/>
+      <c r="L31" s="67" t="n"/>
+      <c r="M31" s="67" t="n"/>
+      <c r="N31" s="67" t="n"/>
     </row>
     <row r="32">
-      <c r="H32" s="30" t="n"/>
-      <c r="I32" s="30" t="n"/>
-      <c r="J32" s="30" t="n"/>
-      <c r="K32" s="30" t="n"/>
-      <c r="L32" s="30" t="n"/>
-      <c r="M32" s="30" t="n"/>
-      <c r="N32" s="30" t="n"/>
+      <c r="H32" s="43" t="n"/>
+      <c r="I32" s="43" t="n"/>
+      <c r="J32" s="43" t="n"/>
+      <c r="K32" s="43" t="n"/>
+      <c r="L32" s="43" t="n"/>
+      <c r="M32" s="43" t="n"/>
+      <c r="N32" s="43" t="n"/>
     </row>
     <row r="33">
-      <c r="H33" s="30" t="n"/>
-      <c r="I33" s="30" t="n"/>
-      <c r="J33" s="30" t="n"/>
-      <c r="K33" s="30" t="n"/>
-      <c r="L33" s="30" t="n"/>
-      <c r="M33" s="30" t="n"/>
-      <c r="N33" s="30" t="n"/>
+      <c r="H33" s="43" t="n"/>
+      <c r="I33" s="43" t="n"/>
+      <c r="J33" s="43" t="n"/>
+      <c r="K33" s="43" t="n"/>
+      <c r="L33" s="43" t="n"/>
+      <c r="M33" s="43" t="n"/>
+      <c r="N33" s="43" t="n"/>
     </row>
     <row r="34">
-      <c r="H34" s="30" t="n"/>
-      <c r="I34" s="30" t="n"/>
-      <c r="J34" s="30" t="n"/>
-      <c r="K34" s="30" t="n"/>
-      <c r="L34" s="30" t="n"/>
-      <c r="M34" s="30" t="n"/>
-      <c r="N34" s="30" t="n"/>
+      <c r="H34" s="43" t="n"/>
+      <c r="I34" s="43" t="n"/>
+      <c r="J34" s="43" t="n"/>
+      <c r="K34" s="43" t="n"/>
+      <c r="L34" s="43" t="n"/>
+      <c r="M34" s="43" t="n"/>
+      <c r="N34" s="43" t="n"/>
     </row>
     <row r="35">
-      <c r="H35" s="30" t="n"/>
-      <c r="I35" s="30" t="n"/>
-      <c r="J35" s="30" t="n"/>
-      <c r="K35" s="30" t="n"/>
-      <c r="L35" s="30" t="n"/>
-      <c r="M35" s="30" t="n"/>
-      <c r="N35" s="30" t="n"/>
+      <c r="H35" s="43" t="n"/>
+      <c r="I35" s="43" t="n"/>
+      <c r="J35" s="43" t="n"/>
+      <c r="K35" s="43" t="n"/>
+      <c r="L35" s="43" t="n"/>
+      <c r="M35" s="43" t="n"/>
+      <c r="N35" s="43" t="n"/>
     </row>
     <row r="36">
-      <c r="H36" s="30" t="n"/>
-      <c r="I36" s="30" t="n"/>
-      <c r="J36" s="30" t="n"/>
-      <c r="K36" s="30" t="n"/>
-      <c r="L36" s="30" t="n"/>
-      <c r="M36" s="30" t="n"/>
-      <c r="N36" s="30" t="n"/>
+      <c r="H36" s="43" t="n"/>
+      <c r="I36" s="43" t="n"/>
+      <c r="J36" s="43" t="n"/>
+      <c r="K36" s="43" t="n"/>
+      <c r="L36" s="43" t="n"/>
+      <c r="M36" s="43" t="n"/>
+      <c r="N36" s="43" t="n"/>
     </row>
     <row r="37">
-      <c r="H37" s="30" t="n"/>
-      <c r="I37" s="30" t="n"/>
-      <c r="J37" s="30" t="n"/>
-      <c r="K37" s="30" t="n"/>
-      <c r="L37" s="30" t="n"/>
-      <c r="M37" s="30" t="n"/>
-      <c r="N37" s="30" t="n"/>
+      <c r="H37" s="43" t="n"/>
+      <c r="I37" s="43" t="n"/>
+      <c r="J37" s="43" t="n"/>
+      <c r="K37" s="43" t="n"/>
+      <c r="L37" s="43" t="n"/>
+      <c r="M37" s="43" t="n"/>
+      <c r="N37" s="43" t="n"/>
     </row>
     <row r="38">
-      <c r="H38" s="30" t="n"/>
-      <c r="I38" s="30" t="n"/>
-      <c r="J38" s="30" t="n"/>
-      <c r="K38" s="30" t="n"/>
-      <c r="L38" s="30" t="n"/>
-      <c r="M38" s="30" t="n"/>
-      <c r="N38" s="30" t="n"/>
+      <c r="H38" s="43" t="n"/>
+      <c r="I38" s="43" t="n"/>
+      <c r="J38" s="43" t="n"/>
+      <c r="K38" s="43" t="n"/>
+      <c r="L38" s="43" t="n"/>
+      <c r="M38" s="43" t="n"/>
+      <c r="N38" s="43" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1984,8 +2149,8 @@
     <mergeCell ref="A8:G17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A25:G38"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:G23"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C1" tooltip="https://exmail.qq.com/cgi-bin/frame_html?t=newwin_frame&amp;sid=juRbMcy1XByGVH8W,7&amp;url=/cgi-bin/readmail?folderid=1&amp;t=readmail&amp;mailid=ZL0022-F32sxDnTCko7XHceg87_f0d&amp;mode=pre&amp;maxage=3600&amp;base=10.5710&amp;ver=13360&amp;show_ww_icon=false" display="https://exmail.qq.com/cgi-bin/frame_html?t=newwin_frame&amp;sid=juRbMcy1XByGVH8W,7&amp;url=%2Fcgi-bin%2Freadmail%3Ffolderid%3D1%26t%3Dreadmail%26mailid%3DZL0022-F32sxDnTCko7XHceg87_f0d%26mode%3Dpre%26maxage%3D3600%26base%3D10.5710%26ver%3D13360%26show_ww_icon%3Dfalse" r:id="rId1"/>
@@ -2000,364 +2165,500 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6"/>
   <cols>
-    <col width="20.2410714285714" customWidth="1" min="4" max="4"/>
-    <col width="26.0357142857143" customWidth="1" min="7" max="7"/>
-    <col width="13.5357142857143" customWidth="1" min="8" max="8"/>
-    <col width="28.5625" customWidth="1" min="9" max="9"/>
-    <col width="14.875" customWidth="1" min="10" max="10"/>
-    <col width="33.9285714285714" customWidth="1" min="12" max="12"/>
-    <col width="20.2321428571429" customWidth="1" min="13" max="13"/>
+    <col width="7.73214285714286" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.7946428571429" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17.1071428571429" customWidth="1" style="1" min="3" max="3"/>
+    <col width="15.6160714285714" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.3928571428571" customWidth="1" style="1" min="5" max="5"/>
+    <col width="23.0714285714286" customWidth="1" style="3" min="6" max="6"/>
+    <col width="30.8035714285714" customWidth="1" style="3" min="7" max="7"/>
+    <col width="18.2946428571429" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.7053571428571" customWidth="1" style="1" min="9" max="9"/>
+    <col width="19.9375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="16.0625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="34.6696428571429" customWidth="1" style="1" min="12" max="12"/>
+    <col width="20.2321428571429" customWidth="1" style="1" min="13" max="14"/>
+    <col width="25.7410714285714" customWidth="1" style="1" min="15" max="15"/>
+    <col width="9.142857142857141" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>测试报告邮件链接：</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>用例完成时间：</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>用例评审时间：</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>评审状态：</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>需求评审：2025-12-19</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="7" t="n"/>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>用例完成：2025-12-21</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="14" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="22" customFormat="1" customHeight="1" s="1">
+      <c r="A3" s="19" t="inlineStr">
+        <is>
+          <t>用例评审：2025-12-26</t>
+        </is>
+      </c>
+      <c r="B3" s="19" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="17" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="22" customFormat="1" customHeight="1" s="1">
+      <c r="A4" s="19" t="inlineStr">
+        <is>
+          <t>用例状态：通过12，失败2，暂停0，搁置3</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="17" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="22" customFormat="1" customHeight="1" s="1">
+      <c r="A5" s="19" t="inlineStr">
+        <is>
+          <t>自动化状态：通过1，失败1</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="17" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="22" customFormat="1" customHeight="1" s="1">
+      <c r="A6" s="19" t="inlineStr">
+        <is>
+          <t>自动化完成：100%</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="17" t="n"/>
+      <c r="K6" s="16" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="22" customFormat="1" customHeight="1" s="1">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>测试报告：//（邮件链接）</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="17" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="34" customFormat="1" customHeight="1" s="2">
+      <c r="A8" s="21" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C8" s="21" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E8" s="21" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F8" s="22" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G8" s="23" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H8" s="24" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I8" s="24" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J8" s="24" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K8" s="24" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L8" s="24" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>工作流</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="M8" s="24" t="inlineStr">
+        <is>
+          <t>自动化脚本</t>
+        </is>
+      </c>
+      <c r="N8" s="24" t="inlineStr">
+        <is>
+          <t>自动化后置</t>
+        </is>
+      </c>
+      <c r="O8" s="24" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="9" ht="51" customHeight="1">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="26" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E9" s="26" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F9" s="27" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G9" s="28" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H9" s="25" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="25" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="n"/>
-      <c r="M4" s="12" t="n"/>
-      <c r="N4" s="12" t="n"/>
-    </row>
-    <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
+      <c r="M9" s="25" t="n"/>
+      <c r="N9" s="25" t="n"/>
+      <c r="O9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="51" customHeight="1">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B10" s="29" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="C10" s="29" t="n"/>
+      <c r="D10" s="30" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E10" s="30" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F10" s="31" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G10" s="32" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H10" s="29" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I10" s="30" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
+      <c r="J10" s="29" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="8" t="n"/>
-      <c r="M5" s="12" t="n"/>
-      <c r="N5" s="12" t="n"/>
-    </row>
-    <row r="6" ht="68" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="K10" s="29" t="n"/>
+      <c r="L10" s="29" t="n"/>
+      <c r="M10" s="29" t="n"/>
+      <c r="N10" s="29" t="n"/>
+      <c r="O10" s="29" t="n"/>
+    </row>
+    <row r="11" ht="86" customHeight="1">
+      <c r="A11" s="33" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>用户模块</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="B11" s="33" t="inlineStr">
+        <is>
+          <t>系统管理</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>用户管理</t>
+        </is>
+      </c>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>创建用户</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>1，
-2，
-3，</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>创建一个用户</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="K6" s="14" t="inlineStr">
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>界面上创建用户，后台数据库里查询是否存在</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="inlineStr">
+        <is>
+          <t>1，admin登录
+2，进入“系统管理”-“用户管理”
+3，点击“新增用户”，添加用户信息后保存。</t>
+        </is>
+      </c>
+      <c r="H11" s="37" t="inlineStr">
+        <is>
+          <t>随机创建1个用户</t>
+        </is>
+      </c>
+      <c r="I11" s="33" t="inlineStr">
+        <is>
+          <t>v1=0</t>
+        </is>
+      </c>
+      <c r="J11" s="33" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="K11" s="38" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="15" t="inlineStr">
-        <is>
-          <t>{1:"select count(*) from user where nick_name='李四' and user_name='zhangsan'"，"validation"：{"name":"张三",'age':'20','sex':"1"}}</t>
-        </is>
-      </c>
-      <c r="M6" s="16" t="inlineStr">
+      <c r="L11" s="39" t="inlineStr">
+        <is>
+          <t>{"k1": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v1": 1}</t>
+        </is>
+      </c>
+      <c r="M11" s="40" t="inlineStr">
         <is>
           <t>新增用户.py</t>
         </is>
       </c>
-      <c r="N6" s="16" t="n"/>
-    </row>
-    <row r="7" ht="68" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="N11" s="41" t="n"/>
+      <c r="O11" s="42" t="inlineStr">
+        <is>
+          <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
+        </is>
+      </c>
+      <c r="P11" s="43" t="n"/>
+      <c r="Q11" s="43" t="n"/>
+    </row>
+    <row r="12" ht="68" customHeight="1">
+      <c r="A12" s="33" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>系统模块</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="B12" s="33" t="inlineStr">
+        <is>
+          <t>系统管理</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>角色管理</t>
+        </is>
+      </c>
+      <c r="D12" s="44" t="n"/>
+      <c r="E12" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>创建系统</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>1，
-2，
-3，</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>创建一个用户</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="14" t="inlineStr">
+      <c r="F12" s="45" t="inlineStr">
+        <is>
+          <t>更改角色名称</t>
+        </is>
+      </c>
+      <c r="G12" s="46" t="inlineStr">
+        <is>
+          <t>1，admin登录
+2，进入“系统管理”-“角色管理”
+3，点击“908”角色的编辑
+4，修改角色名称为“100”
+5，保存。</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t>编辑908用户</t>
+        </is>
+      </c>
+      <c r="I12" s="33" t="n"/>
+      <c r="J12" s="33" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="K12" s="38" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L7" s="15" t="inlineStr">
-        <is>
-          <t>{1:"select count(*) from user where nick_name='张三' and user_name='zhangsan'"，"validation"：{"name":"张三",'age':'20','sex':"1"}}</t>
-        </is>
-      </c>
-      <c r="M7" s="16" t="inlineStr">
+      <c r="L12" s="47" t="inlineStr">
+        <is>
+          <t>{"k1": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v1": 1}</t>
+        </is>
+      </c>
+      <c r="M12" s="48" t="inlineStr">
         <is>
           <t>编辑角色.py</t>
         </is>
       </c>
-      <c r="N7" s="16" t="n"/>
+      <c r="N12" s="48" t="n"/>
+      <c r="O12" s="49" t="inlineStr">
+        <is>
+          <t># playwright codegen http://192.168.0.243:8083/login?redirect=/index</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/instance/zyjk/CDRD/web/testcase.xlsx
+++ b/instance/zyjk/CDRD/web/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27660" windowHeight="13160" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27800" windowHeight="16760" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -799,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -827,9 +827,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -840,19 +837,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,9 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,318 +1430,318 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G23"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="inlineStr">
+      <c r="A1" s="45" t="inlineStr">
         <is>
           <t>测试报告邮件链接：</t>
         </is>
       </c>
-      <c r="B1" s="51" t="n"/>
-      <c r="C1" s="52" t="inlineStr">
+      <c r="B1" s="46" t="n"/>
+      <c r="C1" s="47" t="inlineStr">
         <is>
           <t>https://exmail.qq.com/cgi-bin/frame_html?t=newwin_frame&amp;sid=juRbMcy1XByGVH8W,7&amp;url=%2Fcgi-bin%2Freadmail%3Ffolderid%3D1%26t%3Dreadmail%26mailid%3DZL0022-F32sxDnTCko7XHceg87_f0d%26mode%3Dpre%26maxage%3D3600%26base%3D10.5710%26ver%3D13360%26show_ww_icon%3Dfalse</t>
         </is>
       </c>
-      <c r="D1" s="53" t="n"/>
-      <c r="E1" s="53" t="n"/>
-      <c r="F1" s="53" t="n"/>
-      <c r="G1" s="53" t="n"/>
-      <c r="H1" s="53" t="n"/>
-      <c r="I1" s="53" t="n"/>
-      <c r="J1" s="53" t="n"/>
-      <c r="K1" s="53" t="n"/>
-      <c r="L1" s="53" t="n"/>
-      <c r="M1" s="16" t="n"/>
-      <c r="N1" s="16" t="n"/>
+      <c r="D1" s="48" t="n"/>
+      <c r="E1" s="48" t="n"/>
+      <c r="F1" s="48" t="n"/>
+      <c r="G1" s="48" t="n"/>
+      <c r="H1" s="48" t="n"/>
+      <c r="I1" s="48" t="n"/>
+      <c r="J1" s="48" t="n"/>
+      <c r="K1" s="48" t="n"/>
+      <c r="L1" s="48" t="n"/>
+      <c r="M1" s="14" t="n"/>
+      <c r="N1" s="14" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="inlineStr">
+      <c r="A2" s="45" t="inlineStr">
         <is>
           <t>用例完成时间：2026.1.26</t>
         </is>
       </c>
-      <c r="B2" s="51" t="n"/>
-      <c r="C2" s="50" t="inlineStr">
+      <c r="B2" s="46" t="n"/>
+      <c r="C2" s="45" t="inlineStr">
         <is>
           <t>用例评审时间：2026.2.10</t>
         </is>
       </c>
-      <c r="D2" s="51" t="n"/>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="D2" s="46" t="n"/>
+      <c r="E2" s="45" t="inlineStr">
         <is>
           <t>评审状态：已完成</t>
         </is>
       </c>
-      <c r="F2" s="53" t="n"/>
-      <c r="G2" s="53" t="n"/>
-      <c r="H2" s="53" t="n"/>
-      <c r="I2" s="53" t="n"/>
-      <c r="J2" s="53" t="n"/>
-      <c r="K2" s="53" t="n"/>
-      <c r="L2" s="53" t="n"/>
-      <c r="M2" s="54" t="n"/>
-      <c r="N2" s="54" t="n"/>
+      <c r="F2" s="48" t="n"/>
+      <c r="G2" s="48" t="n"/>
+      <c r="H2" s="48" t="n"/>
+      <c r="I2" s="48" t="n"/>
+      <c r="J2" s="48" t="n"/>
+      <c r="K2" s="48" t="n"/>
+      <c r="L2" s="48" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="55" t="inlineStr">
+      <c r="A3" s="50" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B3" s="55" t="inlineStr">
+      <c r="B3" s="50" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C3" s="55" t="inlineStr">
+      <c r="C3" s="50" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D3" s="55" t="inlineStr">
+      <c r="D3" s="50" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E3" s="56" t="inlineStr">
+      <c r="E3" s="51" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F3" s="55" t="inlineStr">
+      <c r="F3" s="50" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G3" s="57" t="inlineStr">
+      <c r="G3" s="52" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H3" s="57" t="inlineStr">
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I3" s="58" t="inlineStr">
+      <c r="I3" s="53" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J3" s="59" t="inlineStr">
+      <c r="J3" s="54" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K3" s="59" t="inlineStr">
+      <c r="K3" s="54" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L3" s="59" t="inlineStr">
+      <c r="L3" s="54" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="60" t="inlineStr">
+      <c r="M3" s="55" t="inlineStr">
         <is>
           <t>工作流</t>
         </is>
       </c>
-      <c r="N3" s="61" t="inlineStr">
+      <c r="N3" s="56" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1">
-      <c r="A4" s="33" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
+      <c r="B4" s="29" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="33" t="n"/>
-      <c r="D4" s="37" t="inlineStr">
+      <c r="C4" s="29" t="n"/>
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="37" t="inlineStr">
+      <c r="E4" s="31" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="F4" s="57" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G4" s="63" t="inlineStr">
+      <c r="G4" s="58" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H4" s="33" t="inlineStr">
+      <c r="H4" s="29" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="inlineStr">
+      <c r="I4" s="29" t="n"/>
+      <c r="J4" s="29" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="40" t="n"/>
-      <c r="N4" s="40" t="n"/>
+      <c r="K4" s="29" t="n"/>
+      <c r="L4" s="29" t="n"/>
+      <c r="M4" s="35" t="n"/>
+      <c r="N4" s="35" t="n"/>
     </row>
     <row r="5" ht="68" customHeight="1">
-      <c r="A5" s="33" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B5" s="33" t="inlineStr">
+      <c r="B5" s="29" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C5" s="33" t="n"/>
-      <c r="D5" s="37" t="inlineStr">
+      <c r="C5" s="29" t="n"/>
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E5" s="37" t="inlineStr">
+      <c r="E5" s="31" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="F5" s="57" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G5" s="63" t="inlineStr">
+      <c r="G5" s="58" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H5" s="33" t="inlineStr">
+      <c r="H5" s="29" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I5" s="37" t="inlineStr">
+      <c r="I5" s="31" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J5" s="33" t="inlineStr">
+      <c r="J5" s="29" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="40" t="n"/>
-      <c r="N5" s="40" t="n"/>
+      <c r="K5" s="29" t="n"/>
+      <c r="L5" s="29" t="n"/>
+      <c r="M5" s="35" t="n"/>
+      <c r="N5" s="35" t="n"/>
     </row>
     <row r="6" ht="236" customHeight="1">
-      <c r="A6" s="33" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B6" s="33" t="inlineStr">
+      <c r="B6" s="29" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C6" s="33" t="n"/>
-      <c r="D6" s="44" t="inlineStr">
+      <c r="C6" s="29" t="n"/>
+      <c r="D6" s="39" t="inlineStr">
         <is>
           <t>[{"1，用户登录接口": "curl login(‘admin’，’123456‘)"}, {"2，设置机构接口"："curl org（code：'123'，name：‘宝山社区'）"}]</t>
         </is>
       </c>
-      <c r="E6" s="37" t="inlineStr">
+      <c r="E6" s="31" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="F6" s="57" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G6" s="63" t="inlineStr">
+      <c r="G6" s="58" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H6" s="33" t="inlineStr">
+      <c r="H6" s="29" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="inlineStr">
+      <c r="I6" s="29" t="n"/>
+      <c r="J6" s="29" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K6" s="64" t="inlineStr">
+      <c r="K6" s="59" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="34" t="inlineStr">
+      <c r="L6" s="30" t="inlineStr">
         <is>
           <t>{"sql":"select * from user where name='张三'"，"validation"：{"name":"张三",'age':'20','sex':"1"}}</t>
         </is>
       </c>
-      <c r="M6" s="48" t="n"/>
-      <c r="N6" s="48" t="n"/>
+      <c r="M6" s="43" t="n"/>
+      <c r="N6" s="43" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="n"/>
-      <c r="B7" s="65" t="n"/>
-      <c r="C7" s="65" t="n"/>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="65" t="n"/>
-      <c r="F7" s="65" t="n"/>
-      <c r="G7" s="65" t="n"/>
-      <c r="H7" s="65" t="n"/>
-      <c r="I7" s="65" t="n"/>
-      <c r="J7" s="65" t="n"/>
-      <c r="K7" s="65" t="n"/>
-      <c r="L7" s="65" t="n"/>
-      <c r="M7" s="65" t="n"/>
-      <c r="N7" s="65" t="n"/>
+      <c r="A7" s="60" t="n"/>
+      <c r="B7" s="60" t="n"/>
+      <c r="C7" s="60" t="n"/>
+      <c r="D7" s="60" t="n"/>
+      <c r="E7" s="60" t="n"/>
+      <c r="F7" s="60" t="n"/>
+      <c r="G7" s="60" t="n"/>
+      <c r="H7" s="60" t="n"/>
+      <c r="I7" s="60" t="n"/>
+      <c r="J7" s="60" t="n"/>
+      <c r="K7" s="60" t="n"/>
+      <c r="L7" s="60" t="n"/>
+      <c r="M7" s="60" t="n"/>
+      <c r="N7" s="60" t="n"/>
     </row>
     <row r="8" ht="409.5" customHeight="1">
-      <c r="A8" s="66" t="inlineStr">
+      <c r="A8" s="61" t="inlineStr">
         <is>
           <t>字段说明：
 优先级
@@ -1796,113 +1783,113 @@
 用于airflow工作流调度，暂未空</t>
         </is>
       </c>
-      <c r="H8" s="43" t="n"/>
-      <c r="I8" s="43" t="n"/>
-      <c r="J8" s="43" t="n"/>
-      <c r="K8" s="43" t="n"/>
-      <c r="L8" s="43" t="n"/>
-      <c r="M8" s="43" t="n"/>
-      <c r="N8" s="43" t="n"/>
+      <c r="H8" s="38" t="n"/>
+      <c r="I8" s="38" t="n"/>
+      <c r="J8" s="38" t="n"/>
+      <c r="K8" s="38" t="n"/>
+      <c r="L8" s="38" t="n"/>
+      <c r="M8" s="38" t="n"/>
+      <c r="N8" s="38" t="n"/>
     </row>
     <row r="9">
-      <c r="H9" s="43" t="n"/>
-      <c r="I9" s="43" t="n"/>
-      <c r="J9" s="43" t="n"/>
-      <c r="K9" s="43" t="n"/>
-      <c r="L9" s="43" t="n"/>
-      <c r="M9" s="43" t="n"/>
-      <c r="N9" s="43" t="n"/>
+      <c r="H9" s="38" t="n"/>
+      <c r="I9" s="38" t="n"/>
+      <c r="J9" s="38" t="n"/>
+      <c r="K9" s="38" t="n"/>
+      <c r="L9" s="38" t="n"/>
+      <c r="M9" s="38" t="n"/>
+      <c r="N9" s="38" t="n"/>
     </row>
     <row r="10">
-      <c r="H10" s="43" t="n"/>
-      <c r="I10" s="43" t="n"/>
-      <c r="J10" s="43" t="n"/>
-      <c r="K10" s="43" t="n"/>
-      <c r="L10" s="43" t="n"/>
-      <c r="M10" s="43" t="n"/>
-      <c r="N10" s="43" t="n"/>
+      <c r="H10" s="38" t="n"/>
+      <c r="I10" s="38" t="n"/>
+      <c r="J10" s="38" t="n"/>
+      <c r="K10" s="38" t="n"/>
+      <c r="L10" s="38" t="n"/>
+      <c r="M10" s="38" t="n"/>
+      <c r="N10" s="38" t="n"/>
     </row>
     <row r="11">
-      <c r="H11" s="43" t="n"/>
-      <c r="I11" s="43" t="n"/>
-      <c r="J11" s="43" t="n"/>
-      <c r="K11" s="43" t="n"/>
-      <c r="L11" s="43" t="n"/>
-      <c r="M11" s="43" t="n"/>
-      <c r="N11" s="43" t="n"/>
+      <c r="H11" s="38" t="n"/>
+      <c r="I11" s="38" t="n"/>
+      <c r="J11" s="38" t="n"/>
+      <c r="K11" s="38" t="n"/>
+      <c r="L11" s="38" t="n"/>
+      <c r="M11" s="38" t="n"/>
+      <c r="N11" s="38" t="n"/>
     </row>
     <row r="12">
-      <c r="H12" s="43" t="n"/>
-      <c r="I12" s="43" t="n"/>
-      <c r="J12" s="43" t="n"/>
-      <c r="K12" s="43" t="n"/>
-      <c r="L12" s="43" t="n"/>
-      <c r="M12" s="43" t="n"/>
-      <c r="N12" s="43" t="n"/>
+      <c r="H12" s="38" t="n"/>
+      <c r="I12" s="38" t="n"/>
+      <c r="J12" s="38" t="n"/>
+      <c r="K12" s="38" t="n"/>
+      <c r="L12" s="38" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="38" t="n"/>
     </row>
     <row r="13">
-      <c r="H13" s="43" t="n"/>
-      <c r="I13" s="43" t="n"/>
-      <c r="J13" s="43" t="n"/>
-      <c r="K13" s="43" t="n"/>
-      <c r="L13" s="43" t="n"/>
-      <c r="M13" s="43" t="n"/>
-      <c r="N13" s="43" t="n"/>
+      <c r="H13" s="38" t="n"/>
+      <c r="I13" s="38" t="n"/>
+      <c r="J13" s="38" t="n"/>
+      <c r="K13" s="38" t="n"/>
+      <c r="L13" s="38" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="38" t="n"/>
     </row>
     <row r="14">
-      <c r="H14" s="43" t="n"/>
-      <c r="I14" s="43" t="n"/>
-      <c r="J14" s="43" t="n"/>
-      <c r="K14" s="43" t="n"/>
-      <c r="L14" s="43" t="n"/>
-      <c r="M14" s="43" t="n"/>
-      <c r="N14" s="43" t="n"/>
+      <c r="H14" s="38" t="n"/>
+      <c r="I14" s="38" t="n"/>
+      <c r="J14" s="38" t="n"/>
+      <c r="K14" s="38" t="n"/>
+      <c r="L14" s="38" t="n"/>
+      <c r="M14" s="38" t="n"/>
+      <c r="N14" s="38" t="n"/>
     </row>
     <row r="15">
-      <c r="H15" s="43" t="n"/>
-      <c r="I15" s="43" t="n"/>
-      <c r="J15" s="43" t="n"/>
-      <c r="K15" s="43" t="n"/>
-      <c r="L15" s="43" t="n"/>
-      <c r="M15" s="43" t="n"/>
-      <c r="N15" s="43" t="n"/>
+      <c r="H15" s="38" t="n"/>
+      <c r="I15" s="38" t="n"/>
+      <c r="J15" s="38" t="n"/>
+      <c r="K15" s="38" t="n"/>
+      <c r="L15" s="38" t="n"/>
+      <c r="M15" s="38" t="n"/>
+      <c r="N15" s="38" t="n"/>
     </row>
     <row r="16">
-      <c r="H16" s="43" t="n"/>
-      <c r="I16" s="43" t="n"/>
-      <c r="J16" s="43" t="n"/>
-      <c r="K16" s="43" t="n"/>
-      <c r="L16" s="43" t="n"/>
-      <c r="M16" s="43" t="n"/>
-      <c r="N16" s="43" t="n"/>
+      <c r="H16" s="38" t="n"/>
+      <c r="I16" s="38" t="n"/>
+      <c r="J16" s="38" t="n"/>
+      <c r="K16" s="38" t="n"/>
+      <c r="L16" s="38" t="n"/>
+      <c r="M16" s="38" t="n"/>
+      <c r="N16" s="38" t="n"/>
     </row>
     <row r="17">
-      <c r="H17" s="43" t="n"/>
-      <c r="I17" s="43" t="n"/>
-      <c r="J17" s="43" t="n"/>
-      <c r="K17" s="43" t="n"/>
-      <c r="L17" s="43" t="n"/>
-      <c r="M17" s="43" t="n"/>
-      <c r="N17" s="43" t="n"/>
+      <c r="H17" s="38" t="n"/>
+      <c r="I17" s="38" t="n"/>
+      <c r="J17" s="38" t="n"/>
+      <c r="K17" s="38" t="n"/>
+      <c r="L17" s="38" t="n"/>
+      <c r="M17" s="38" t="n"/>
+      <c r="N17" s="38" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="n"/>
-      <c r="B18" s="65" t="n"/>
-      <c r="C18" s="65" t="n"/>
-      <c r="D18" s="65" t="n"/>
-      <c r="E18" s="65" t="n"/>
-      <c r="F18" s="65" t="n"/>
-      <c r="G18" s="65" t="n"/>
-      <c r="H18" s="65" t="n"/>
-      <c r="I18" s="65" t="n"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
-      <c r="L18" s="65" t="n"/>
-      <c r="M18" s="65" t="n"/>
-      <c r="N18" s="65" t="n"/>
+      <c r="A18" s="60" t="n"/>
+      <c r="B18" s="60" t="n"/>
+      <c r="C18" s="60" t="n"/>
+      <c r="D18" s="60" t="n"/>
+      <c r="E18" s="60" t="n"/>
+      <c r="F18" s="60" t="n"/>
+      <c r="G18" s="60" t="n"/>
+      <c r="H18" s="60" t="n"/>
+      <c r="I18" s="60" t="n"/>
+      <c r="J18" s="60" t="n"/>
+      <c r="K18" s="60" t="n"/>
+      <c r="L18" s="60" t="n"/>
+      <c r="M18" s="60" t="n"/>
+      <c r="N18" s="60" t="n"/>
     </row>
     <row r="19" ht="64.59999999999999" customHeight="1">
-      <c r="A19" s="66" t="inlineStr">
+      <c r="A19" s="61" t="inlineStr">
         <is>
           <t>自动化执行流程：
 1，判断“是否自动化”，仅对标记为 “是” 的用例执行自动化流程。
@@ -1914,68 +1901,68 @@
 5，根据断言结果，自动更新用例执行状态。</t>
         </is>
       </c>
-      <c r="H19" s="43" t="n"/>
-      <c r="I19" s="43" t="n"/>
-      <c r="J19" s="43" t="n"/>
-      <c r="K19" s="43" t="n"/>
-      <c r="L19" s="43" t="n"/>
-      <c r="M19" s="43" t="n"/>
-      <c r="N19" s="43" t="n"/>
+      <c r="H19" s="38" t="n"/>
+      <c r="I19" s="38" t="n"/>
+      <c r="J19" s="38" t="n"/>
+      <c r="K19" s="38" t="n"/>
+      <c r="L19" s="38" t="n"/>
+      <c r="M19" s="38" t="n"/>
+      <c r="N19" s="38" t="n"/>
     </row>
     <row r="20">
-      <c r="H20" s="43" t="n"/>
-      <c r="I20" s="43" t="n"/>
-      <c r="J20" s="43" t="n"/>
-      <c r="K20" s="43" t="n"/>
-      <c r="L20" s="43" t="n"/>
-      <c r="M20" s="43" t="n"/>
-      <c r="N20" s="43" t="n"/>
+      <c r="H20" s="38" t="n"/>
+      <c r="I20" s="38" t="n"/>
+      <c r="J20" s="38" t="n"/>
+      <c r="K20" s="38" t="n"/>
+      <c r="L20" s="38" t="n"/>
+      <c r="M20" s="38" t="n"/>
+      <c r="N20" s="38" t="n"/>
     </row>
     <row r="21">
-      <c r="H21" s="43" t="n"/>
-      <c r="I21" s="43" t="n"/>
-      <c r="J21" s="43" t="n"/>
-      <c r="K21" s="43" t="n"/>
-      <c r="L21" s="43" t="n"/>
-      <c r="M21" s="43" t="n"/>
-      <c r="N21" s="43" t="n"/>
+      <c r="H21" s="38" t="n"/>
+      <c r="I21" s="38" t="n"/>
+      <c r="J21" s="38" t="n"/>
+      <c r="K21" s="38" t="n"/>
+      <c r="L21" s="38" t="n"/>
+      <c r="M21" s="38" t="n"/>
+      <c r="N21" s="38" t="n"/>
     </row>
     <row r="22">
-      <c r="H22" s="43" t="n"/>
-      <c r="I22" s="43" t="n"/>
-      <c r="J22" s="43" t="n"/>
-      <c r="K22" s="43" t="n"/>
-      <c r="L22" s="43" t="n"/>
-      <c r="M22" s="43" t="n"/>
-      <c r="N22" s="43" t="n"/>
+      <c r="H22" s="38" t="n"/>
+      <c r="I22" s="38" t="n"/>
+      <c r="J22" s="38" t="n"/>
+      <c r="K22" s="38" t="n"/>
+      <c r="L22" s="38" t="n"/>
+      <c r="M22" s="38" t="n"/>
+      <c r="N22" s="38" t="n"/>
     </row>
     <row r="23">
-      <c r="H23" s="43" t="n"/>
-      <c r="I23" s="67" t="n"/>
-      <c r="J23" s="67" t="n"/>
-      <c r="K23" s="67" t="n"/>
-      <c r="L23" s="67" t="n"/>
-      <c r="M23" s="67" t="n"/>
-      <c r="N23" s="67" t="n"/>
+      <c r="H23" s="38" t="n"/>
+      <c r="I23" s="62" t="n"/>
+      <c r="J23" s="62" t="n"/>
+      <c r="K23" s="62" t="n"/>
+      <c r="L23" s="62" t="n"/>
+      <c r="M23" s="62" t="n"/>
+      <c r="N23" s="62" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="n"/>
-      <c r="B24" s="65" t="n"/>
-      <c r="C24" s="65" t="n"/>
-      <c r="D24" s="65" t="n"/>
-      <c r="E24" s="65" t="n"/>
-      <c r="F24" s="65" t="n"/>
-      <c r="G24" s="65" t="n"/>
-      <c r="H24" s="65" t="n"/>
-      <c r="I24" s="65" t="n"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
-      <c r="L24" s="65" t="n"/>
-      <c r="M24" s="65" t="n"/>
-      <c r="N24" s="65" t="n"/>
+      <c r="A24" s="60" t="n"/>
+      <c r="B24" s="60" t="n"/>
+      <c r="C24" s="60" t="n"/>
+      <c r="D24" s="60" t="n"/>
+      <c r="E24" s="60" t="n"/>
+      <c r="F24" s="60" t="n"/>
+      <c r="G24" s="60" t="n"/>
+      <c r="H24" s="60" t="n"/>
+      <c r="I24" s="60" t="n"/>
+      <c r="J24" s="60" t="n"/>
+      <c r="K24" s="60" t="n"/>
+      <c r="L24" s="60" t="n"/>
+      <c r="M24" s="60" t="n"/>
+      <c r="N24" s="60" t="n"/>
     </row>
     <row r="25" ht="409.5" customHeight="1">
-      <c r="A25" s="66" t="inlineStr">
+      <c r="A25" s="61" t="inlineStr">
         <is>
           <t>前置条件与自动化校验使用说明：
 以下以自动化创建用户场景为例，说明前置条件的两种编写方式。
@@ -2018,130 +2005,130 @@
 4，暂不支持多层嵌套与复杂逻辑组合。</t>
         </is>
       </c>
-      <c r="H25" s="43" t="n"/>
-      <c r="I25" s="67" t="n"/>
-      <c r="J25" s="67" t="n"/>
-      <c r="K25" s="67" t="n"/>
-      <c r="L25" s="67" t="n"/>
-      <c r="M25" s="67" t="n"/>
-      <c r="N25" s="67" t="n"/>
+      <c r="H25" s="38" t="n"/>
+      <c r="I25" s="62" t="n"/>
+      <c r="J25" s="62" t="n"/>
+      <c r="K25" s="62" t="n"/>
+      <c r="L25" s="62" t="n"/>
+      <c r="M25" s="62" t="n"/>
+      <c r="N25" s="62" t="n"/>
     </row>
     <row r="26">
-      <c r="H26" s="43" t="n"/>
-      <c r="I26" s="67" t="n"/>
-      <c r="J26" s="67" t="n"/>
-      <c r="K26" s="67" t="n"/>
-      <c r="L26" s="67" t="n"/>
-      <c r="M26" s="67" t="n"/>
-      <c r="N26" s="67" t="n"/>
+      <c r="H26" s="38" t="n"/>
+      <c r="I26" s="62" t="n"/>
+      <c r="J26" s="62" t="n"/>
+      <c r="K26" s="62" t="n"/>
+      <c r="L26" s="62" t="n"/>
+      <c r="M26" s="62" t="n"/>
+      <c r="N26" s="62" t="n"/>
     </row>
     <row r="27">
-      <c r="H27" s="43" t="n"/>
-      <c r="I27" s="67" t="n"/>
-      <c r="J27" s="67" t="n"/>
-      <c r="K27" s="67" t="n"/>
-      <c r="L27" s="67" t="n"/>
-      <c r="M27" s="67" t="n"/>
-      <c r="N27" s="67" t="n"/>
+      <c r="H27" s="38" t="n"/>
+      <c r="I27" s="62" t="n"/>
+      <c r="J27" s="62" t="n"/>
+      <c r="K27" s="62" t="n"/>
+      <c r="L27" s="62" t="n"/>
+      <c r="M27" s="62" t="n"/>
+      <c r="N27" s="62" t="n"/>
     </row>
     <row r="28">
-      <c r="H28" s="43" t="n"/>
-      <c r="I28" s="67" t="n"/>
-      <c r="J28" s="67" t="n"/>
-      <c r="K28" s="67" t="n"/>
-      <c r="L28" s="67" t="n"/>
-      <c r="M28" s="67" t="n"/>
-      <c r="N28" s="67" t="n"/>
+      <c r="H28" s="38" t="n"/>
+      <c r="I28" s="62" t="n"/>
+      <c r="J28" s="62" t="n"/>
+      <c r="K28" s="62" t="n"/>
+      <c r="L28" s="62" t="n"/>
+      <c r="M28" s="62" t="n"/>
+      <c r="N28" s="62" t="n"/>
     </row>
     <row r="29">
-      <c r="H29" s="43" t="n"/>
-      <c r="I29" s="67" t="n"/>
-      <c r="J29" s="67" t="n"/>
-      <c r="K29" s="67" t="n"/>
-      <c r="L29" s="67" t="n"/>
-      <c r="M29" s="67" t="n"/>
-      <c r="N29" s="67" t="n"/>
+      <c r="H29" s="38" t="n"/>
+      <c r="I29" s="62" t="n"/>
+      <c r="J29" s="62" t="n"/>
+      <c r="K29" s="62" t="n"/>
+      <c r="L29" s="62" t="n"/>
+      <c r="M29" s="62" t="n"/>
+      <c r="N29" s="62" t="n"/>
     </row>
     <row r="30">
-      <c r="H30" s="43" t="n"/>
-      <c r="I30" s="67" t="n"/>
-      <c r="J30" s="67" t="n"/>
-      <c r="K30" s="67" t="n"/>
-      <c r="L30" s="67" t="n"/>
-      <c r="M30" s="67" t="n"/>
-      <c r="N30" s="67" t="n"/>
+      <c r="H30" s="38" t="n"/>
+      <c r="I30" s="62" t="n"/>
+      <c r="J30" s="62" t="n"/>
+      <c r="K30" s="62" t="n"/>
+      <c r="L30" s="62" t="n"/>
+      <c r="M30" s="62" t="n"/>
+      <c r="N30" s="62" t="n"/>
     </row>
     <row r="31">
-      <c r="H31" s="43" t="n"/>
-      <c r="I31" s="67" t="n"/>
-      <c r="J31" s="67" t="n"/>
-      <c r="K31" s="67" t="n"/>
-      <c r="L31" s="67" t="n"/>
-      <c r="M31" s="67" t="n"/>
-      <c r="N31" s="67" t="n"/>
+      <c r="H31" s="38" t="n"/>
+      <c r="I31" s="62" t="n"/>
+      <c r="J31" s="62" t="n"/>
+      <c r="K31" s="62" t="n"/>
+      <c r="L31" s="62" t="n"/>
+      <c r="M31" s="62" t="n"/>
+      <c r="N31" s="62" t="n"/>
     </row>
     <row r="32">
-      <c r="H32" s="43" t="n"/>
-      <c r="I32" s="43" t="n"/>
-      <c r="J32" s="43" t="n"/>
-      <c r="K32" s="43" t="n"/>
-      <c r="L32" s="43" t="n"/>
-      <c r="M32" s="43" t="n"/>
-      <c r="N32" s="43" t="n"/>
+      <c r="H32" s="38" t="n"/>
+      <c r="I32" s="38" t="n"/>
+      <c r="J32" s="38" t="n"/>
+      <c r="K32" s="38" t="n"/>
+      <c r="L32" s="38" t="n"/>
+      <c r="M32" s="38" t="n"/>
+      <c r="N32" s="38" t="n"/>
     </row>
     <row r="33">
-      <c r="H33" s="43" t="n"/>
-      <c r="I33" s="43" t="n"/>
-      <c r="J33" s="43" t="n"/>
-      <c r="K33" s="43" t="n"/>
-      <c r="L33" s="43" t="n"/>
-      <c r="M33" s="43" t="n"/>
-      <c r="N33" s="43" t="n"/>
+      <c r="H33" s="38" t="n"/>
+      <c r="I33" s="38" t="n"/>
+      <c r="J33" s="38" t="n"/>
+      <c r="K33" s="38" t="n"/>
+      <c r="L33" s="38" t="n"/>
+      <c r="M33" s="38" t="n"/>
+      <c r="N33" s="38" t="n"/>
     </row>
     <row r="34">
-      <c r="H34" s="43" t="n"/>
-      <c r="I34" s="43" t="n"/>
-      <c r="J34" s="43" t="n"/>
-      <c r="K34" s="43" t="n"/>
-      <c r="L34" s="43" t="n"/>
-      <c r="M34" s="43" t="n"/>
-      <c r="N34" s="43" t="n"/>
+      <c r="H34" s="38" t="n"/>
+      <c r="I34" s="38" t="n"/>
+      <c r="J34" s="38" t="n"/>
+      <c r="K34" s="38" t="n"/>
+      <c r="L34" s="38" t="n"/>
+      <c r="M34" s="38" t="n"/>
+      <c r="N34" s="38" t="n"/>
     </row>
     <row r="35">
-      <c r="H35" s="43" t="n"/>
-      <c r="I35" s="43" t="n"/>
-      <c r="J35" s="43" t="n"/>
-      <c r="K35" s="43" t="n"/>
-      <c r="L35" s="43" t="n"/>
-      <c r="M35" s="43" t="n"/>
-      <c r="N35" s="43" t="n"/>
+      <c r="H35" s="38" t="n"/>
+      <c r="I35" s="38" t="n"/>
+      <c r="J35" s="38" t="n"/>
+      <c r="K35" s="38" t="n"/>
+      <c r="L35" s="38" t="n"/>
+      <c r="M35" s="38" t="n"/>
+      <c r="N35" s="38" t="n"/>
     </row>
     <row r="36">
-      <c r="H36" s="43" t="n"/>
-      <c r="I36" s="43" t="n"/>
-      <c r="J36" s="43" t="n"/>
-      <c r="K36" s="43" t="n"/>
-      <c r="L36" s="43" t="n"/>
-      <c r="M36" s="43" t="n"/>
-      <c r="N36" s="43" t="n"/>
+      <c r="H36" s="38" t="n"/>
+      <c r="I36" s="38" t="n"/>
+      <c r="J36" s="38" t="n"/>
+      <c r="K36" s="38" t="n"/>
+      <c r="L36" s="38" t="n"/>
+      <c r="M36" s="38" t="n"/>
+      <c r="N36" s="38" t="n"/>
     </row>
     <row r="37">
-      <c r="H37" s="43" t="n"/>
-      <c r="I37" s="43" t="n"/>
-      <c r="J37" s="43" t="n"/>
-      <c r="K37" s="43" t="n"/>
-      <c r="L37" s="43" t="n"/>
-      <c r="M37" s="43" t="n"/>
-      <c r="N37" s="43" t="n"/>
+      <c r="H37" s="38" t="n"/>
+      <c r="I37" s="38" t="n"/>
+      <c r="J37" s="38" t="n"/>
+      <c r="K37" s="38" t="n"/>
+      <c r="L37" s="38" t="n"/>
+      <c r="M37" s="38" t="n"/>
+      <c r="N37" s="38" t="n"/>
     </row>
     <row r="38">
-      <c r="H38" s="43" t="n"/>
-      <c r="I38" s="43" t="n"/>
-      <c r="J38" s="43" t="n"/>
-      <c r="K38" s="43" t="n"/>
-      <c r="L38" s="43" t="n"/>
-      <c r="M38" s="43" t="n"/>
-      <c r="N38" s="43" t="n"/>
+      <c r="H38" s="38" t="n"/>
+      <c r="I38" s="38" t="n"/>
+      <c r="J38" s="38" t="n"/>
+      <c r="K38" s="38" t="n"/>
+      <c r="L38" s="38" t="n"/>
+      <c r="M38" s="38" t="n"/>
+      <c r="N38" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2167,16 +2154,16 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="7.73214285714286" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.1160714285714" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.7946428571429" customWidth="1" style="1" min="2" max="2"/>
     <col width="17.1071428571429" customWidth="1" style="1" min="3" max="3"/>
-    <col width="15.6160714285714" customWidth="1" style="1" min="4" max="4"/>
+    <col width="18.3035714285714" customWidth="1" style="1" min="4" max="4"/>
     <col width="13.3928571428571" customWidth="1" style="1" min="5" max="5"/>
     <col width="23.0714285714286" customWidth="1" style="3" min="6" max="6"/>
     <col width="30.8035714285714" customWidth="1" style="3" min="7" max="7"/>
@@ -2191,12 +2178,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>需求评审：2025-12-19</t>
         </is>
       </c>
-      <c r="B1" s="11" t="n"/>
+      <c r="B1" s="5" t="n"/>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -2212,411 +2199,436 @@
       <c r="O1" s="10" t="n"/>
     </row>
     <row r="2" ht="22" customHeight="1">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>用例完成：2025-12-21</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="16" t="n"/>
-      <c r="I2" s="16" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="16" t="n"/>
-      <c r="L2" s="16" t="n"/>
-      <c r="M2" s="16" t="n"/>
-      <c r="N2" s="16" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>自动化用例完成：</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
       <c r="O2" s="10" t="n"/>
     </row>
     <row r="3" ht="22" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="19" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>用例评审：2025-12-26</t>
         </is>
       </c>
-      <c r="B3" s="19" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="12" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>自动化用例评审：</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="n"/>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="16" t="n"/>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="17" t="n"/>
-      <c r="K3" s="16" t="n"/>
-      <c r="L3" s="16" t="n"/>
-      <c r="M3" s="16" t="n"/>
-      <c r="N3" s="16" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="14" t="n"/>
+      <c r="L3" s="14" t="n"/>
+      <c r="M3" s="14" t="n"/>
+      <c r="N3" s="14" t="n"/>
       <c r="O3" s="10" t="n"/>
     </row>
     <row r="4" ht="22" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="19" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>用例状态：通过12，失败2，暂停0，搁置3</t>
         </is>
       </c>
-      <c r="B4" s="20" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="12" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>通过: 1，失败: 1，暂停: 0，搁置: 0</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="n"/>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="16" t="n"/>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="17" t="n"/>
-      <c r="K4" s="16" t="n"/>
-      <c r="L4" s="16" t="n"/>
-      <c r="M4" s="16" t="n"/>
-      <c r="N4" s="16" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="14" t="n"/>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" s="14" t="n"/>
+      <c r="N4" s="14" t="n"/>
       <c r="O4" s="10" t="n"/>
     </row>
     <row r="5" ht="22" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>自动化状态：通过1，失败1</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
+      <c r="A5" s="16" t="inlineStr">
+        <is>
+          <t>执行数量：</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>自动化数量：2</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="n"/>
       <c r="F5" s="3" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="17" t="n"/>
-      <c r="K5" s="16" t="n"/>
-      <c r="L5" s="16" t="n"/>
-      <c r="M5" s="16" t="n"/>
-      <c r="N5" s="16" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="14" t="n"/>
+      <c r="M5" s="14" t="n"/>
+      <c r="N5" s="14" t="n"/>
       <c r="O5" s="10" t="n"/>
     </row>
     <row r="6" ht="22" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>自动化完成：100%</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>测试完成率：</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>自动化通过率: 50.00%</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="n"/>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="17" t="n"/>
-      <c r="K6" s="16" t="n"/>
-      <c r="L6" s="16" t="n"/>
-      <c r="M6" s="16" t="n"/>
-      <c r="N6" s="16" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
       <c r="O6" s="10" t="n"/>
     </row>
     <row r="7" ht="22" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>测试报告：//（邮件链接）</t>
         </is>
       </c>
-      <c r="B7" s="20" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
       <c r="F7" s="3" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="16" t="n"/>
-      <c r="I7" s="16" t="n"/>
-      <c r="J7" s="17" t="n"/>
-      <c r="K7" s="16" t="n"/>
-      <c r="L7" s="16" t="n"/>
-      <c r="M7" s="16" t="n"/>
-      <c r="N7" s="16" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
       <c r="O7" s="10" t="n"/>
     </row>
     <row r="8" ht="34" customFormat="1" customHeight="1" s="2">
-      <c r="A8" s="21" t="inlineStr">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B8" s="21" t="inlineStr">
+      <c r="B8" s="17" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D8" s="21" t="inlineStr">
+      <c r="D8" s="17" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E8" s="21" t="inlineStr">
+      <c r="E8" s="17" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F8" s="22" t="inlineStr">
+      <c r="F8" s="18" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G8" s="23" t="inlineStr">
+      <c r="G8" s="19" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H8" s="24" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I8" s="24" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J8" s="24" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K8" s="24" t="inlineStr">
+      <c r="K8" s="20" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L8" s="24" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M8" s="24" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>自动化脚本</t>
         </is>
       </c>
-      <c r="N8" s="24" t="inlineStr">
+      <c r="N8" s="20" t="inlineStr">
         <is>
           <t>自动化后置</t>
         </is>
       </c>
-      <c r="O8" s="24" t="inlineStr">
+      <c r="O8" s="20" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="9" ht="51" customHeight="1">
-      <c r="A9" s="25" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="inlineStr">
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="22" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E9" s="26" t="inlineStr">
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F9" s="27" t="inlineStr">
+      <c r="F9" s="23" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G9" s="28" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H9" s="25" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I9" s="25" t="n"/>
-      <c r="J9" s="25" t="inlineStr">
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K9" s="25" t="n"/>
-      <c r="L9" s="25" t="n"/>
-      <c r="M9" s="25" t="n"/>
-      <c r="N9" s="25" t="n"/>
-      <c r="O9" s="25" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="21" t="n"/>
+      <c r="M9" s="21" t="n"/>
+      <c r="N9" s="21" t="n"/>
+      <c r="O9" s="21" t="n"/>
     </row>
     <row r="10" ht="51" customHeight="1">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B10" s="29" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C10" s="29" t="n"/>
-      <c r="D10" s="30" t="inlineStr">
+      <c r="C10" s="25" t="n"/>
+      <c r="D10" s="26" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E10" s="30" t="inlineStr">
+      <c r="E10" s="26" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="F10" s="27" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G10" s="32" t="inlineStr">
+      <c r="G10" s="28" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H10" s="29" t="inlineStr">
+      <c r="H10" s="25" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I10" s="30" t="inlineStr">
+      <c r="I10" s="26" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J10" s="29" t="inlineStr">
+      <c r="J10" s="25" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K10" s="29" t="n"/>
-      <c r="L10" s="29" t="n"/>
-      <c r="M10" s="29" t="n"/>
-      <c r="N10" s="29" t="n"/>
-      <c r="O10" s="29" t="n"/>
+      <c r="K10" s="25" t="n"/>
+      <c r="L10" s="25" t="n"/>
+      <c r="M10" s="25" t="n"/>
+      <c r="N10" s="25" t="n"/>
+      <c r="O10" s="25" t="n"/>
     </row>
     <row r="11" ht="86" customHeight="1">
-      <c r="A11" s="33" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B11" s="33" t="inlineStr">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C11" s="33" t="inlineStr">
+      <c r="C11" s="29" t="inlineStr">
         <is>
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D11" s="34" t="n"/>
-      <c r="E11" s="37" t="inlineStr">
+      <c r="D11" s="30" t="n"/>
+      <c r="E11" s="31" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F11" s="36" t="inlineStr">
+      <c r="F11" s="32" t="inlineStr">
         <is>
           <t>界面上创建用户，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G11" s="36" t="inlineStr">
+      <c r="G11" s="32" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“用户管理”
 3，点击“新增用户”，添加用户信息后保存。</t>
         </is>
       </c>
-      <c r="H11" s="37" t="inlineStr">
+      <c r="H11" s="31" t="inlineStr">
         <is>
           <t>随机创建1个用户</t>
         </is>
       </c>
-      <c r="I11" s="33" t="inlineStr">
-        <is>
-          <t>v1=0</t>
-        </is>
-      </c>
-      <c r="J11" s="33" t="inlineStr">
+      <c r="I11" s="31" t="inlineStr">
+        <is>
+          <t>{'k': "select count(*) as qty from sys_user where user_name='940997'", 'v': 2}{'k': "select count(*) as qty from sys_user where job_num='429678'", 'v': 1}</t>
+        </is>
+      </c>
+      <c r="J11" s="29" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K11" s="38" t="inlineStr">
+      <c r="K11" s="33" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L11" s="39" t="inlineStr">
-        <is>
-          <t>{"k1": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v1": 1}</t>
-        </is>
-      </c>
-      <c r="M11" s="40" t="inlineStr">
+      <c r="L11" s="34" t="inlineStr">
+        <is>
+          <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
+        </is>
+      </c>
+      <c r="M11" s="35" t="inlineStr">
         <is>
           <t>新增用户.py</t>
         </is>
       </c>
-      <c r="N11" s="41" t="n"/>
-      <c r="O11" s="42" t="inlineStr">
+      <c r="N11" s="36" t="n"/>
+      <c r="O11" s="37" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
       </c>
-      <c r="P11" s="43" t="n"/>
-      <c r="Q11" s="43" t="n"/>
+      <c r="P11" s="38" t="n"/>
+      <c r="Q11" s="38" t="n"/>
     </row>
     <row r="12" ht="68" customHeight="1">
-      <c r="A12" s="33" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B12" s="33" t="inlineStr">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C12" s="33" t="inlineStr">
+      <c r="C12" s="29" t="inlineStr">
         <is>
           <t>角色管理</t>
         </is>
       </c>
-      <c r="D12" s="44" t="n"/>
-      <c r="E12" s="37" t="inlineStr">
+      <c r="D12" s="39" t="n"/>
+      <c r="E12" s="31" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F12" s="45" t="inlineStr">
+      <c r="F12" s="40" t="inlineStr">
         <is>
           <t>更改角色名称</t>
         </is>
       </c>
-      <c r="G12" s="46" t="inlineStr">
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“角色管理”
@@ -2625,34 +2637,34 @@
 5，保存。</t>
         </is>
       </c>
-      <c r="H12" s="33" t="inlineStr">
+      <c r="H12" s="29" t="inlineStr">
         <is>
           <t>编辑908用户</t>
         </is>
       </c>
-      <c r="I12" s="33" t="n"/>
-      <c r="J12" s="33" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="K12" s="38" t="inlineStr">
+      <c r="I12" s="29" t="n"/>
+      <c r="J12" s="29" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L12" s="47" t="inlineStr">
-        <is>
-          <t>{"k1": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v1": 1}</t>
-        </is>
-      </c>
-      <c r="M12" s="48" t="inlineStr">
+      <c r="L12" s="42" t="inlineStr">
+        <is>
+          <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
+        </is>
+      </c>
+      <c r="M12" s="43" t="inlineStr">
         <is>
           <t>编辑角色.py</t>
         </is>
       </c>
-      <c r="N12" s="48" t="n"/>
-      <c r="O12" s="49" t="inlineStr">
+      <c r="N12" s="43" t="n"/>
+      <c r="O12" s="44" t="inlineStr">
         <is>
           <t># playwright codegen http://192.168.0.243:8083/login?redirect=/index</t>
         </is>
